--- a/data/Input/BESS Data.xlsx
+++ b/data/Input/BESS Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo.giannuzzo\Documents\GitHub\BESS-Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo.giannuzzo\PycharmProjects\BESS-Optimization\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE7F75-65C5-44CD-B1C1-CF6DD7675BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62748A9B-0BEF-41D3-BDC5-FA47E9191250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="1128" windowWidth="21624" windowHeight="11112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BESS Properties" sheetId="1" r:id="rId1"/>
@@ -32397,6 +32397,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB9475D466104B4F8254900DD2928249" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="51bfdcbcfa4b53868757ab92efd2e4cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73f032b1-d858-4e52-a112-ff8a449379e0" xmlns:ns3="2cf41f78-c934-4264-8805-5389acee063d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af5ace7edf031339c2ec4586fdd3025f" ns2:_="" ns3:_="">
     <xsd:import namespace="73f032b1-d858-4e52-a112-ff8a449379e0"/>
@@ -32607,15 +32616,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A602403A-600C-49AF-946F-2F0888D2A6AE}">
   <ds:schemaRefs>
@@ -32634,6 +32634,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1200BC12-131E-47A8-BFF6-178118ED08DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE7B807A-2ECF-47D1-92D8-AD26DF1B906C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32650,12 +32658,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1200BC12-131E-47A8-BFF6-178118ED08DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>